--- a/data.xlsx
+++ b/data.xlsx
@@ -325,7 +325,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
